--- a/T- and Chi2 test tables/just_img_sign_diff_in_std_diffs.xlsx
+++ b/T- and Chi2 test tables/just_img_sign_diff_in_std_diffs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>var</t>
   </si>
@@ -40,58 +40,91 @@
     <t>sign_diff/corr</t>
   </si>
   <si>
+    <t>month_3</t>
+  </si>
+  <si>
+    <t>part_of_the_day_22-05</t>
+  </si>
+  <si>
+    <t>part_of_the_day_08-12</t>
+  </si>
+  <si>
+    <t>topic_name_Digital</t>
+  </si>
+  <si>
+    <t>topic_name_Competition</t>
+  </si>
+  <si>
+    <t>topic_name_Togetherness</t>
+  </si>
+  <si>
+    <t>topic_name_Appreciation</t>
+  </si>
+  <si>
+    <t>sentiment_1</t>
+  </si>
+  <si>
     <t>is_weekday_0</t>
   </si>
   <si>
+    <t>person_0</t>
+  </si>
+  <si>
+    <t>chair_0</t>
+  </si>
+  <si>
+    <t>cup_0</t>
+  </si>
+  <si>
+    <t>cellphone_0</t>
+  </si>
+  <si>
     <t>bottle_0</t>
   </si>
   <si>
-    <t>cup_0</t>
-  </si>
-  <si>
-    <t>chair_0</t>
-  </si>
-  <si>
     <t>man_detected_0</t>
   </si>
   <si>
-    <t>person_0</t>
-  </si>
-  <si>
-    <t>month_03</t>
-  </si>
-  <si>
-    <t>sentiment_1</t>
-  </si>
-  <si>
     <t>woman_detected_0</t>
   </si>
   <si>
-    <t>topic_name_Digital</t>
-  </si>
-  <si>
-    <t>topic_name_Appreciation</t>
-  </si>
-  <si>
-    <t>topic_name_Togetherness</t>
-  </si>
-  <si>
     <t>laptop_0</t>
   </si>
   <si>
     <t>pottedplant_0</t>
   </si>
   <si>
-    <t>topic_name_Competition</t>
-  </si>
-  <si>
-    <t>part_of_the_day_08-12</t>
-  </si>
-  <si>
-    <t>part_of_the_day_22-05</t>
-  </si>
-  <si>
-    <t>cellphone_0</t>
+    <t>month_8</t>
+  </si>
+  <si>
+    <t>month_10</t>
+  </si>
+  <si>
+    <t>asking_for_eng_0</t>
+  </si>
+  <si>
+    <t>part_of_the_day_15-19</t>
+  </si>
+  <si>
+    <t>part_of_the_day_19-22</t>
+  </si>
+  <si>
+    <t>topic_name_Financial</t>
+  </si>
+  <si>
+    <t>topic_name_Transaction</t>
+  </si>
+  <si>
+    <t>topic_name_Entrepreneurship</t>
+  </si>
+  <si>
+    <t>topic_name_Education</t>
+  </si>
+  <si>
+    <t>topic_name_Empowerment</t>
+  </si>
+  <si>
+    <t>nothing_0</t>
   </si>
   <si>
     <t>raw_length</t>
@@ -112,40 +145,82 @@
     <t>blue</t>
   </si>
   <si>
-    <t>month_08</t>
-  </si>
-  <si>
-    <t>nothing_0</t>
-  </si>
-  <si>
-    <t>topic_name_Financial</t>
-  </si>
-  <si>
-    <t>topic_name_Entrepreneurship</t>
-  </si>
-  <si>
-    <t>topic_name_Transaction</t>
-  </si>
-  <si>
-    <t>topic_name_Empowerment</t>
-  </si>
-  <si>
-    <t>topic_name_Education</t>
-  </si>
-  <si>
-    <t>part_of_the_day_19-22</t>
-  </si>
-  <si>
-    <t>part_of_the_day_15-19</t>
-  </si>
-  <si>
-    <t>asking_for_eng_0</t>
-  </si>
-  <si>
-    <t>month_10</t>
-  </si>
-  <si>
     <t>box_areas</t>
+  </si>
+  <si>
+    <t>month_1</t>
+  </si>
+  <si>
+    <t>month_2</t>
+  </si>
+  <si>
+    <t>month_4</t>
+  </si>
+  <si>
+    <t>month_6</t>
+  </si>
+  <si>
+    <t>month_9</t>
+  </si>
+  <si>
+    <t>month_11</t>
+  </si>
+  <si>
+    <t>part_of_the_day_12-15</t>
+  </si>
+  <si>
+    <t>topic_name_Festivity</t>
+  </si>
+  <si>
+    <t>topic_name_Event</t>
+  </si>
+  <si>
+    <t>tie_0</t>
+  </si>
+  <si>
+    <t>month_5</t>
+  </si>
+  <si>
+    <t>month_7</t>
+  </si>
+  <si>
+    <t>month_12</t>
+  </si>
+  <si>
+    <t>part_of_the_day_05-08</t>
+  </si>
+  <si>
+    <t>has_emoji_0</t>
+  </si>
+  <si>
+    <t>topic_name_unknown</t>
+  </si>
+  <si>
+    <t>sentiment_0</t>
+  </si>
+  <si>
+    <t>sentiment_-1</t>
+  </si>
+  <si>
+    <t>car_0</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -503,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,22 +618,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>7560</v>
+        <v>4488</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.1509600232139458</v>
+        <v>0.1225636678859008</v>
       </c>
       <c r="F2">
-        <v>0.08037138992702875</v>
+        <v>0.08729139724658082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -572,22 +647,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>52831</v>
+        <v>8730</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0.09201240184894048</v>
+        <v>0.2030316771452076</v>
       </c>
       <c r="F3">
-        <v>0.02267193375864132</v>
+        <v>0.06856821619396181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -601,22 +676,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>52120</v>
+        <v>2822</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0.09662873897191168</v>
+        <v>0.1359798403069996</v>
       </c>
       <c r="F4">
-        <v>-0.06752251133190916</v>
+        <v>0.08769792332279323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -630,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>51030</v>
+        <v>7600</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>0.09313744005117429</v>
+        <v>0.124471534744131</v>
       </c>
       <c r="F5">
-        <v>0.04368454153523358</v>
+        <v>0.08462706555660604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -659,16 +734,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>41845</v>
+        <v>4644</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0.1023616524769543</v>
+        <v>0.1907378154416792</v>
       </c>
       <c r="F6">
-        <v>0.04918935792053122</v>
+        <v>0.08079698799866726</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -688,16 +763,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>20986</v>
+        <v>4595</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>0.1467414940387797</v>
+        <v>0.2723982741534743</v>
       </c>
       <c r="F7">
-        <v>0.05453488602565713</v>
+        <v>0.07334739070510905</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -717,22 +792,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>4488</v>
+        <v>2211</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>0.1225636678859008</v>
+        <v>0.318487622864937</v>
       </c>
       <c r="F8">
-        <v>0.08729139724658082</v>
+        <v>0.0805092926105455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -775,16 +850,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>42631</v>
+        <v>7560</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.1178270128781896</v>
+        <v>0.1509600232139458</v>
       </c>
       <c r="F10">
-        <v>-0.01119799804729061</v>
+        <v>0.08037138992702875</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -804,22 +879,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>7600</v>
+        <v>20986</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0.124471534744131</v>
+        <v>0.1467414940387797</v>
       </c>
       <c r="F11">
-        <v>0.08462706555660604</v>
+        <v>0.05453488602565713</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -833,22 +908,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>2211</v>
+        <v>51030</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.318487622864937</v>
+        <v>0.09313744005117429</v>
       </c>
       <c r="F12">
-        <v>0.0805092926105455</v>
+        <v>0.04368454153523358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -862,16 +937,16 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>4595</v>
+        <v>52120</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0.2723982741534743</v>
+        <v>0.09662873897191168</v>
       </c>
       <c r="F13">
-        <v>0.07334739070510905</v>
+        <v>-0.06752251133190916</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -891,16 +966,16 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>52237</v>
+        <v>51767</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.09976014931513739</v>
+        <v>0.09763391601309167</v>
       </c>
       <c r="F14">
-        <v>-0.1587306841785301</v>
+        <v>-0.06513350912233545</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -920,22 +995,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>53131</v>
+        <v>52831</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0.09335370423321764</v>
+        <v>0.09201240184894048</v>
       </c>
       <c r="F15">
-        <v>-0.06027119903966487</v>
+        <v>0.02267193375864132</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -949,16 +1024,16 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>4644</v>
+        <v>41845</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>0.1907378154416792</v>
+        <v>0.1023616524769543</v>
       </c>
       <c r="F16">
-        <v>0.08079698799866726</v>
+        <v>0.04918935792053122</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -978,22 +1053,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2822</v>
+        <v>42631</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>0.1359798403069996</v>
+        <v>0.1178270128781896</v>
       </c>
       <c r="F17">
-        <v>0.08769792332279323</v>
+        <v>-0.01119799804729061</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1007,16 +1082,16 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>8730</v>
+        <v>52237</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0.2030316771452076</v>
+        <v>0.09976014931513739</v>
       </c>
       <c r="F18">
-        <v>0.06856821619396181</v>
+        <v>-0.1587306841785301</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1036,16 +1111,16 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>51767</v>
+        <v>53131</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>0.09763391601309167</v>
+        <v>0.09335370423321764</v>
       </c>
       <c r="F19">
-        <v>-0.06513350912233545</v>
+        <v>-0.06027119903966487</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1065,22 +1140,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>54241</v>
+        <v>4114</v>
       </c>
       <c r="D20">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>0.0902098897269788</v>
+        <v>0.05681568311438431</v>
       </c>
       <c r="F20">
-        <v>-0.03027758624830832</v>
+        <v>0.09295060363373994</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1094,22 +1169,22 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>54241</v>
+        <v>5438</v>
       </c>
       <c r="D21">
-        <v>46266</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>0.0902098897269788</v>
+        <v>0.05911840345743574</v>
       </c>
       <c r="F21">
-        <v>-0.0160236096025667</v>
+        <v>0.09367433868162864</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1123,16 +1198,16 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>54241</v>
+        <v>53545</v>
       </c>
       <c r="D22">
-        <v>42333</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0.0902098897269788</v>
+        <v>0.08602237647726989</v>
       </c>
       <c r="F22">
-        <v>0.0228565591906996</v>
+        <v>0.4123656324793728</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1152,22 +1227,22 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>54241</v>
+        <v>19654</v>
       </c>
       <c r="D23">
-        <v>37343</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>0.0902098897269788</v>
+        <v>0.04644508079759538</v>
       </c>
       <c r="F23">
-        <v>0.01037585166948221</v>
+        <v>0.1150791630001191</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1181,22 +1256,22 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>54241</v>
+        <v>10796</v>
       </c>
       <c r="D24">
-        <v>40299</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>0.0902098897269788</v>
+        <v>0.06712008921392236</v>
       </c>
       <c r="F24">
-        <v>0.03220549994751907</v>
+        <v>0.09594766130803435</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1210,22 +1285,22 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>54241</v>
+        <v>2582</v>
       </c>
       <c r="D25">
-        <v>38626</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>0.0902098897269788</v>
+        <v>0.0258958614261309</v>
       </c>
       <c r="F25">
-        <v>-0.01329444552003445</v>
+        <v>0.09342440841825798</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1239,22 +1314,22 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>4114</v>
+        <v>3518</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26">
-        <v>0.05681568311438431</v>
+        <v>0.04006114798058098</v>
       </c>
       <c r="F26">
-        <v>0.09295060363373994</v>
+        <v>0.09368806084193311</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.035</v>
+        <v>0.003</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1268,16 +1343,16 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>38744</v>
+        <v>6923</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>0.07100881703308159</v>
+        <v>-0.007673481980421509</v>
       </c>
       <c r="F27">
-        <v>0.1382144299897622</v>
+        <v>0.104531006053331</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1297,22 +1372,22 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>2582</v>
+        <v>8838</v>
       </c>
       <c r="D28">
         <v>12</v>
       </c>
       <c r="E28">
-        <v>0.0258958614261309</v>
+        <v>-0.002577484127781447</v>
       </c>
       <c r="F28">
-        <v>0.09342440841825798</v>
+        <v>0.1082715775037418</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1326,16 +1401,16 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>6923</v>
+        <v>3492</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>-0.007673481980421509</v>
+        <v>0.01194414067665448</v>
       </c>
       <c r="F29">
-        <v>0.104531006053331</v>
+        <v>0.09559529625092476</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1355,22 +1430,22 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>3518</v>
+        <v>38744</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0.04006114798058098</v>
+        <v>0.07100881703308159</v>
       </c>
       <c r="F30">
-        <v>0.09368806084193311</v>
+        <v>0.1382144299897622</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1384,16 +1459,16 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>3492</v>
+        <v>54241</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="E31">
-        <v>0.01194414067665448</v>
+        <v>0.0902098897269788</v>
       </c>
       <c r="F31">
-        <v>0.09559529625092476</v>
+        <v>-0.03027758624830832</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1413,16 +1488,16 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>8838</v>
+        <v>54241</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>46266</v>
       </c>
       <c r="E32">
-        <v>-0.002577484127781447</v>
+        <v>0.0902098897269788</v>
       </c>
       <c r="F32">
-        <v>0.1082715775037418</v>
+        <v>-0.0160236096025667</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1442,22 +1517,22 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>10796</v>
+        <v>54241</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>42333</v>
       </c>
       <c r="E33">
-        <v>0.06712008921392236</v>
+        <v>0.0902098897269788</v>
       </c>
       <c r="F33">
-        <v>0.09594766130803435</v>
+        <v>0.0228565591906996</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1471,22 +1546,22 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>19654</v>
+        <v>54241</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>37343</v>
       </c>
       <c r="E34">
-        <v>0.04644508079759538</v>
+        <v>0.0902098897269788</v>
       </c>
       <c r="F34">
-        <v>0.1150791630001191</v>
+        <v>0.01037585166948221</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1500,16 +1575,16 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>53545</v>
+        <v>54241</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>40299</v>
       </c>
       <c r="E35">
-        <v>0.08602237647726989</v>
+        <v>0.0902098897269788</v>
       </c>
       <c r="F35">
-        <v>0.4123656324793728</v>
+        <v>0.03220549994751907</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1529,22 +1604,22 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>5438</v>
+        <v>54241</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>38626</v>
       </c>
       <c r="E36">
-        <v>0.05911840345743574</v>
+        <v>0.0902098897269788</v>
       </c>
       <c r="F36">
-        <v>0.09367433868162864</v>
+        <v>-0.01329444552003445</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1577,6 +1652,731 @@
       </c>
       <c r="I37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>3527</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0.09877800574142856</v>
+      </c>
+      <c r="F38">
+        <v>0.08961400407049414</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.638</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>4035</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>0.09420951029278346</v>
+      </c>
+      <c r="F39">
+        <v>0.08988844470082613</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.802</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>4403</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>0.1006700867924036</v>
+      </c>
+      <c r="F40">
+        <v>0.08928577062751525</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.498</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>4704</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0.1094296332526716</v>
+      </c>
+      <c r="F41">
+        <v>0.08838479588712461</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.232</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>5019</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>0.09153059335727259</v>
+      </c>
+      <c r="F42">
+        <v>0.090075222067793</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.928</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>5390</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>0.1123120976395505</v>
+      </c>
+      <c r="F43">
+        <v>0.08777123134437129</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0.107</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>11350</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0.09080189784286603</v>
+      </c>
+      <c r="F44">
+        <v>0.09005323000546803</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0.948</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>3976</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>0.1026882150113111</v>
+      </c>
+      <c r="F45">
+        <v>0.08922284463933326</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0.446</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>5205</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>0.09534896370741469</v>
+      </c>
+      <c r="F46">
+        <v>0.08966439498702923</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0.725</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>50010</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0.09144983456817127</v>
+      </c>
+      <c r="F47">
+        <v>0.0755538647900766</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0.335</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>4568</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>0.08150941220215052</v>
+      </c>
+      <c r="F48">
+        <v>0.0910099980621592</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>4537</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>0.07628951011810495</v>
+      </c>
+      <c r="F49">
+        <v>0.09148054726531499</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.353</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>4018</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>0.07915274886598024</v>
+      </c>
+      <c r="F50">
+        <v>0.09109449622160264</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.502</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>889</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0.07740307783022335</v>
+      </c>
+      <c r="F51">
+        <v>0.09042328858318317</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>51271</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0.08982728744827398</v>
+      </c>
+      <c r="F52">
+        <v>0.0968147386938058</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.743</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>657</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>0.04151414805754503</v>
+      </c>
+      <c r="F53">
+        <v>0.09080695419168504</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.305</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>8399</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>0.07161896973128676</v>
+      </c>
+      <c r="F54">
+        <v>0.09361604864333975</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>4268</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0.07115000502993508</v>
+      </c>
+      <c r="F55">
+        <v>0.09183772051334313</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.224</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>52865</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0.09010916385159944</v>
+      </c>
+      <c r="F56">
+        <v>0.09407971051326661</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.889</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>54241</v>
+      </c>
+      <c r="D57">
+        <v>44864</v>
+      </c>
+      <c r="E57">
+        <v>0.0902098897269788</v>
+      </c>
+      <c r="F57">
+        <v>-0.001670970242949294</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.697</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>54241</v>
+      </c>
+      <c r="D58">
+        <v>33361</v>
+      </c>
+      <c r="E58">
+        <v>0.0902098897269788</v>
+      </c>
+      <c r="F58">
+        <v>-0.006613018387910227</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.124</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>54241</v>
+      </c>
+      <c r="D59">
+        <v>26690</v>
+      </c>
+      <c r="E59">
+        <v>0.0902098897269788</v>
+      </c>
+      <c r="F59">
+        <v>0.002677993838537045</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.533</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>54241</v>
+      </c>
+      <c r="D60">
+        <v>20769</v>
+      </c>
+      <c r="E60">
+        <v>0.0902098897269788</v>
+      </c>
+      <c r="F60">
+        <v>0.002815863774906442</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.512</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>54241</v>
+      </c>
+      <c r="D61">
+        <v>20192</v>
+      </c>
+      <c r="E61">
+        <v>0.0902098897269788</v>
+      </c>
+      <c r="F61">
+        <v>-0.007324691436313703</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>54241</v>
+      </c>
+      <c r="D62">
+        <v>27692</v>
+      </c>
+      <c r="E62">
+        <v>0.0902098897269788</v>
+      </c>
+      <c r="F62">
+        <v>-0.002397256987936557</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.577</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
